--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$26</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
-  <si>
-    <t>Trening uke 8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+  <si>
+    <t>Trening uke 9</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 23. februar 12:00 - 14:00</t>
+    <t>søn. 2. mars 13:00 - 15:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (4)</t>
+    <t>Deltar (14)</t>
   </si>
   <si>
     <t/>
@@ -39,64 +39,73 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Sander Selnes</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
-  </si>
-  <si>
-    <t>Ikke svart (3)</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
+    <t>Sander Bjørnsen</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Vera Ellingsen</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
   </si>
   <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Kommer ikke (8)</t>
+    <t>Kommer ikke (4)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Markus Grytten</t>
-  </si>
-  <si>
-    <t>Ikke i byen</t>
-  </si>
-  <si>
-    <t>Julie Rjånes</t>
-  </si>
-  <si>
-    <t>Martin Arnesen</t>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>Bortreist</t>
   </si>
   <si>
     <t>Eskil Trosdahl</t>
-  </si>
-  <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>bortreist</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
-  </si>
-  <si>
-    <t>Sara Sørholt</t>
   </si>
   <si>
     <t>Status</t>
@@ -527,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -617,19 +626,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -684,101 +699,115 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="36"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="35" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="27" t="s">
+    <row r="28">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="35" t="s">
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -786,8 +815,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -795,14 +824,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -826,173 +855,223 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45707.54389612268</v>
+        <v>45713.58793181713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45707.54390751157</v>
+        <v>45713.58795469908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>45707.56682675926</v>
+        <v>45713.593151863424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n" s="40">
-        <v>45710.88398280093</v>
+        <v>45713.596375625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n" s="41">
+        <v>45713.65027675926</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>30</v>
+      <c r="A11" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="n" s="42">
+        <v>45713.65253289352</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>30</v>
+      <c r="A12" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="n" s="43">
+        <v>45713.707091157405</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>30</v>
+      <c r="A13" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="n" s="44">
+        <v>45713.792128900466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n" s="45">
+        <v>45713.975099375</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>31</v>
+      <c r="A15" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n" s="46">
+        <v>45714.11268571759</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="n" s="41">
-        <v>45707.543722372684</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" t="n" s="47">
+        <v>45714.89571935185</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="n" s="42">
-        <v>45707.54421277778</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" t="n" s="48">
+        <v>45714.904450567126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n" s="49">
+        <v>45715.033277835646</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="n" s="43">
-        <v>45707.57337851852</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="n" s="44">
-        <v>45707.88926305556</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" t="n" s="50">
+        <v>45715.66956997685</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="n" s="45">
-        <v>45708.64451056713</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="n" s="46">
-        <v>45708.70935207176</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="n" s="47">
-        <v>45708.768713564816</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="C23" t="n" s="51">
+        <v>45713.58787755787</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="n" s="48">
-        <v>45709.567950324075</v>
+      <c r="C24" t="n" s="52">
+        <v>45713.619248773146</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n" s="53">
+        <v>45713.87815625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n" s="54">
+        <v>45715.68995329861</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C22"/>
+  <autoFilter ref="A5:C26"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -16,21 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
-  <si>
-    <t>Trening uke 9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+  <si>
+    <t>Trening uke 10</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 2. mars 13:00 - 15:00</t>
+    <t>søn. 9. mars 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (14)</t>
+    <t>Deltar (13)</t>
   </si>
   <si>
     <t/>
@@ -39,73 +39,79 @@
     <t>Navn</t>
   </si>
   <si>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
     <t>Sander Bjørnsen</t>
   </si>
   <si>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Eskil Trosdahl</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
+  </si>
+  <si>
+    <t>Golf Bot</t>
+  </si>
+  <si>
+    <t>Kommer ikke (5)</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
     <t>Tobias Nilsen</t>
   </si>
   <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
     <t>Hanne Folvik</t>
   </si>
   <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Julie Rjånes</t>
-  </si>
-  <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Emily Skeie</t>
-  </si>
-  <si>
-    <t>Mathias Hong</t>
-  </si>
-  <si>
-    <t>Thomas Barth</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
+    <t>Hjemme</t>
+  </si>
+  <si>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>Er hjemme</t>
   </si>
   <si>
     <t>Vera Ellingsen</t>
   </si>
   <si>
-    <t>Markus Grytten</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Kommer ikke (4)</t>
-  </si>
-  <si>
-    <t>Begrunnelse</t>
-  </si>
-  <si>
-    <t>Vebjørn Molvik Nilsen</t>
-  </si>
-  <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Emilie Heggen</t>
-  </si>
-  <si>
-    <t>Bortreist</t>
-  </si>
-  <si>
-    <t>Eskil Trosdahl</t>
+    <t>Prøver å kvitte meg med vant, men ikke fått svar enda</t>
   </si>
   <si>
     <t>Status</t>
@@ -645,7 +651,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -744,70 +750,75 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="35" t="s">
+    <row r="21">
+      <c r="A21" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="27" t="s">
         <v>24</v>
       </c>
+      <c r="B27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="36"/>
     </row>
     <row r="29">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="28" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="35" t="s">
         <v>28</v>
       </c>
+      <c r="B30" s="36" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="36"/>
+      <c r="A31" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -815,8 +826,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -855,219 +866,219 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45713.58793181713</v>
+        <v>45719.765130416665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45713.58795469908</v>
+        <v>45719.7654058912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>45713.593151863424</v>
+        <v>45719.768079699075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n" s="40">
-        <v>45713.596375625</v>
+        <v>45719.802490625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n" s="41">
-        <v>45713.65027675926</v>
+        <v>45719.974615266205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="n" s="42">
-        <v>45713.65253289352</v>
+        <v>45720.325737673615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="n" s="43">
-        <v>45713.707091157405</v>
+        <v>45720.54988587963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="n" s="44">
-        <v>45713.792128900466</v>
+        <v>45720.55407412037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="n" s="45">
-        <v>45713.975099375</v>
+        <v>45720.659793969906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="n" s="46">
-        <v>45714.11268571759</v>
+        <v>45720.68275288194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="n" s="47">
-        <v>45714.89571935185</v>
+        <v>45720.716952442126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="n" s="48">
-        <v>45714.904450567126</v>
+        <v>45720.752591840275</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="n" s="49">
-        <v>45715.033277835646</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n" s="50">
-        <v>45715.66956997685</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>22</v>
+        <v>45720.954275474534</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="n" s="50">
+        <v>45719.76524395833</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="n" s="51">
-        <v>45713.58787755787</v>
+        <v>45719.765403275465</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="n" s="52">
-        <v>45713.619248773146</v>
+        <v>45720.55480974537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n" s="53">
-        <v>45713.87815625</v>
+        <v>45721.43831960648</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n" s="54">
-        <v>45715.68995329861</v>
+        <v>45721.751165092595</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
-  <si>
-    <t>Trening uke 10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+  <si>
+    <t>Trening uke 11</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 9. mars 12:00 - 14:00</t>
+    <t>søn. 16. mars 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (13)</t>
+    <t>Deltar (2)</t>
   </si>
   <si>
     <t/>
@@ -39,46 +39,22 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Vebjørn Molvik Nilsen</t>
-  </si>
-  <si>
-    <t>Sander Bjørnsen</t>
-  </si>
-  <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>Julie Rjånes</t>
-  </si>
-  <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Emily Skeie</t>
-  </si>
-  <si>
-    <t>Eskil Trosdahl</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
-  </si>
-  <si>
-    <t>Markus Grytten</t>
-  </si>
-  <si>
-    <t>Thomas Barth</t>
-  </si>
-  <si>
-    <t>Mathias Hong</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
+    <t>Sander Selnes</t>
+  </si>
+  <si>
+    <t>Ole Vaaler</t>
+  </si>
+  <si>
+    <t>Ikke svart (4)</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
+  </si>
+  <si>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>Irina Karen Astorga</t>
   </si>
   <si>
     <t>Golf Bot</t>
@@ -90,28 +66,22 @@
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Tobias Nilsen</t>
-  </si>
-  <si>
-    <t>Hanne Folvik</t>
-  </si>
-  <si>
-    <t>Hjemme</t>
-  </si>
-  <si>
-    <t>Emilie Heggen</t>
-  </si>
-  <si>
-    <t>Er hjemme</t>
-  </si>
-  <si>
-    <t>Vera Ellingsen</t>
-  </si>
-  <si>
-    <t>Prøver å kvitte meg med vant, men ikke fått svar enda</t>
+    <t>Martin Arnesen</t>
+  </si>
+  <si>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Vekkreist:(</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
+  </si>
+  <si>
+    <t>Øyvind Øyri</t>
   </si>
   <si>
     <t>Status</t>
@@ -542,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -627,31 +597,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.17578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -695,130 +654,86 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+    <row r="10">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
+    <row r="13">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="35" t="s">
+    <row r="14">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
+    <row r="15">
+      <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="35" t="s">
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+    <row r="22">
+      <c r="A22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B22" s="36"/>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="28"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="36"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -826,8 +741,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -835,14 +750,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -866,223 +781,126 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45719.765130416665</v>
+        <v>45729.542877291664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45719.7654058912</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n" s="39">
-        <v>45719.768079699075</v>
+        <v>45729.80799361111</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
+      <c r="A9" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n" s="40">
-        <v>45719.802490625</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
+      <c r="A10" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="n" s="41">
-        <v>45719.974615266205</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>34</v>
+      <c r="A11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n" s="42">
-        <v>45720.325737673615</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>34</v>
+      <c r="A12" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="n" s="43">
-        <v>45720.54988587963</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n" s="44">
-        <v>45720.55407412037</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>34</v>
+      <c r="A14" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="n" s="45">
-        <v>45720.659793969906</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="n" s="39">
+        <v>45729.544704328706</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>34</v>
+      <c r="A15" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="n" s="46">
-        <v>45720.68275288194</v>
+        <v>17</v>
+      </c>
+      <c r="C15" t="n" s="40">
+        <v>45729.669338391206</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>34</v>
+      <c r="A16" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n" s="47">
-        <v>45720.716952442126</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="n" s="41">
+        <v>45729.6993278588</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>34</v>
+      <c r="A17" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="n" s="48">
-        <v>45720.752591840275</v>
+        <v>20</v>
+      </c>
+      <c r="C17" t="n" s="42">
+        <v>45730.45681221065</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>34</v>
+      <c r="A18" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="n" s="49">
-        <v>45720.954275474534</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="n" s="50">
-        <v>45719.76524395833</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="n" s="51">
-        <v>45719.765403275465</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="n" s="52">
-        <v>45720.55480974537</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="n" s="53">
-        <v>45721.43831960648</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="n" s="54">
-        <v>45721.751165092595</v>
+      <c r="C18" t="n" s="43">
+        <v>45732.40026185185</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C26"/>
+  <autoFilter ref="A5:C18"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$26</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
-  <si>
-    <t>Trening uke 11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+  <si>
+    <t>Trening uke 13</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 16. mars 12:00 - 14:00</t>
+    <t>søn. 30. mars 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (2)</t>
+    <t>Deltar (14)</t>
   </si>
   <si>
     <t/>
@@ -39,49 +39,70 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Sander Selnes</t>
-  </si>
-  <si>
-    <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Ikke svart (4)</t>
-  </si>
-  <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
+    <t>Sander Bjørnsen</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Eskil Trosdahl</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Vera Ellingsen</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
   </si>
   <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Kommer ikke (5)</t>
+    <t>Kommer ikke (4)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Martin Arnesen</t>
-  </si>
-  <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Vekkreist:(</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
-  </si>
-  <si>
-    <t>Øyvind Øyri</t>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
   </si>
   <si>
     <t>Status</t>
@@ -512,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -597,19 +618,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -654,86 +686,123 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
+      <c r="A10" s="35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
+      <c r="A11" s="27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>10</v>
+      <c r="A12" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
-        <v>11</v>
+      <c r="A13" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
+      <c r="A14" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
-        <v>13</v>
+      <c r="A15" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
+      <c r="A17" s="27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
+      <c r="A18" s="35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="28"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="36"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="36"/>
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -741,8 +810,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -750,14 +819,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -781,126 +850,223 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45729.542877291664</v>
+        <v>45740.85121765047</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45729.80799361111</v>
+        <v>45740.85143033565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n" s="39">
+        <v>45740.85379386574</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="n" s="40">
+        <v>45740.863993541665</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>25</v>
+      <c r="A10" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="C10" t="n" s="41">
+        <v>45740.86941708333</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>25</v>
+      <c r="A11" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="n" s="42">
+        <v>45740.89456684028</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>25</v>
+      <c r="A12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="n" s="43">
+        <v>45740.90361502315</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n" s="44">
+        <v>45740.91600888889</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n" s="45">
+        <v>45740.92180138889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n" s="46">
+        <v>45740.92256357639</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n" s="47">
+        <v>45741.04132402778</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n" s="48">
+        <v>45741.554048935184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n" s="49">
+        <v>45741.56413064815</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n" s="50">
+        <v>45741.76222657407</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n" s="51">
+        <v>45740.86827623843</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n" s="39">
-        <v>45729.544704328706</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="n" s="40">
-        <v>45729.669338391206</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n" s="41">
-        <v>45729.6993278588</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n" s="42">
-        <v>45730.45681221065</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="n" s="43">
-        <v>45732.40026185185</v>
+      <c r="C24" t="n" s="52">
+        <v>45741.498915578704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n" s="53">
+        <v>45742.51875743055</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="n" s="54">
+        <v>45742.80150782407</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C18"/>
+  <autoFilter ref="A5:C26"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
-  <si>
-    <t>Trening uke 13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+  <si>
+    <t>Trening uke 14</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 30. mars 12:00 - 14:00</t>
+    <t>søn. 6. april 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (14)</t>
+    <t>Deltar (5)</t>
   </si>
   <si>
     <t/>
@@ -39,70 +39,46 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Vebjørn Molvik Nilsen</t>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
   </si>
   <si>
     <t>Sander Bjørnsen</t>
   </si>
   <si>
-    <t>Tobias Nilsen</t>
-  </si>
-  <si>
-    <t>Eskil Trosdahl</t>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
+  </si>
+  <si>
+    <t>Golf Bot</t>
+  </si>
+  <si>
+    <t>Kommer ikke (3)</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
+  </si>
+  <si>
+    <t>Steffen Synnevåg</t>
   </si>
   <si>
     <t>Thomas Barth</t>
   </si>
   <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Emily Skeie</t>
-  </si>
-  <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
-  </si>
-  <si>
-    <t>Hanne Folvik</t>
+    <t>I Kristiansand</t>
   </si>
   <si>
     <t>Vera Ellingsen</t>
   </si>
   <si>
-    <t>Julie Rjånes</t>
-  </si>
-  <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
-    <t>Mathias Hong</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Kommer ikke (4)</t>
-  </si>
-  <si>
-    <t>Begrunnelse</t>
-  </si>
-  <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>Emilie Heggen</t>
-  </si>
-  <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Markus Grytten</t>
+    <t>Er ikke i Bergen</t>
   </si>
   <si>
     <t>Status</t>
@@ -533,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -619,30 +595,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.34765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -701,108 +667,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="35" t="s">
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>13</v>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
-        <v>14</v>
+      <c r="A14" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B19" s="28"/>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="28"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="36"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="28"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -810,8 +729,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -819,14 +738,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.4609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -850,223 +769,113 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45740.85121765047</v>
+        <v>45748.66055173611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45740.85143033565</v>
+        <v>45748.729551261575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>45740.85379386574</v>
+        <v>45748.76035744213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n" s="40">
-        <v>45740.863993541665</v>
+        <v>45748.92519760416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n" s="41">
-        <v>45740.86941708333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="n" s="42">
-        <v>45740.89456684028</v>
+        <v>45749.36350934028</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
+      <c r="A12" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="n" s="43">
-        <v>45740.90361502315</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n" s="44">
-        <v>45740.91600888889</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>31</v>
+      <c r="A14" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="n" s="45">
-        <v>45740.92180138889</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="n" s="42">
+        <v>45748.746837199076</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
+      <c r="A15" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="n" s="46">
-        <v>45740.92256357639</v>
+        <v>17</v>
+      </c>
+      <c r="C15" t="n" s="43">
+        <v>45748.82656976852</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>31</v>
+      <c r="A16" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n" s="47">
-        <v>45741.04132402778</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="n" s="48">
-        <v>45741.554048935184</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="n" s="49">
-        <v>45741.56413064815</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n" s="50">
-        <v>45741.76222657407</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="n" s="51">
-        <v>45740.86827623843</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="n" s="52">
-        <v>45741.498915578704</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="n" s="53">
-        <v>45742.51875743055</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="n" s="54">
-        <v>45742.80150782407</v>
+      <c r="C16" t="n" s="44">
+        <v>45749.282231006946</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C26"/>
+  <autoFilter ref="A5:C16"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -10,21 +10,21 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
-  <si>
-    <t>Trening uke 14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+  <si>
+    <t>Trening uke 18</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 6. april 12:00 - 14:00</t>
+    <t>søn. 4. mai 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
@@ -39,46 +39,34 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>Julie Rjånes</t>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Eskil Trosdahl</t>
+  </si>
+  <si>
+    <t>Vera Ellingsen</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
+  </si>
+  <si>
+    <t>Golf Bot</t>
+  </si>
+  <si>
+    <t>Kommer ikke (1)</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
   </si>
   <si>
     <t>Sander Bjørnsen</t>
-  </si>
-  <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Kommer ikke (3)</t>
-  </si>
-  <si>
-    <t>Begrunnelse</t>
-  </si>
-  <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Thomas Barth</t>
-  </si>
-  <si>
-    <t>I Kristiansand</t>
-  </si>
-  <si>
-    <t>Vera Ellingsen</t>
-  </si>
-  <si>
-    <t>Er ikke i Bergen</t>
   </si>
   <si>
     <t>Status</t>
@@ -509,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -593,22 +581,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -706,22 +692,6 @@
         <v>16</v>
       </c>
       <c r="B19" s="28"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -738,14 +708,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -769,73 +739,73 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45748.66055173611</v>
+        <v>45776.64752216435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45748.729551261575</v>
+        <v>45776.658258194446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>45748.76035744213</v>
+        <v>45776.66293344907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n" s="40">
-        <v>45748.92519760416</v>
+        <v>45776.66829512732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="n" s="41">
-        <v>45749.36350934028</v>
+        <v>45776.73194590278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
@@ -843,39 +813,17 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="n" s="42">
-        <v>45748.746837199076</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="n" s="43">
-        <v>45748.82656976852</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="n" s="44">
-        <v>45749.282231006946</v>
+        <v>45776.657686886574</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C16"/>
+  <autoFilter ref="A5:C14"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(3).xlsx
+++ b/xlsx_files/spond(3).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
-  <si>
-    <t>Trening uke 18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+  <si>
+    <t>Trening uke 19</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 4. mai 12:00 - 14:00</t>
+    <t>søn. 11. mai 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (5)</t>
+    <t>Deltar (2)</t>
   </si>
   <si>
     <t/>
@@ -39,34 +39,91 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Emily Skeie</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
-  </si>
-  <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Eskil Trosdahl</t>
-  </si>
-  <si>
-    <t>Vera Ellingsen</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Ikke svart (13)</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
   </si>
   <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Kommer ikke (1)</t>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Ole Vaaler</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
+  </si>
+  <si>
+    <t>Øyvind Øyri</t>
+  </si>
+  <si>
+    <t>Irina Karen Astorga</t>
+  </si>
+  <si>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Kommer ikke (8)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Sander Bjørnsen</t>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
+    <t>Sander Selnes</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
+  </si>
+  <si>
+    <t>Martin Arnesen</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Fortsatt hjemme😃</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Konfirmasjon, igjen:(</t>
+  </si>
+  <si>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>Besøk</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
   </si>
   <si>
     <t>Status</t>
@@ -497,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -581,20 +638,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,60 +699,153 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+    <row r="10">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
+    <row r="13">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="28"/>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -699,8 +853,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -708,14 +862,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -739,91 +893,231 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45776.64752216435</v>
+        <v>45783.50668546296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45776.658258194446</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n" s="39">
-        <v>45776.66293344907</v>
+        <v>45784.506806840276</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
+      <c r="A9" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n" s="40">
-        <v>45776.66829512732</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
+      <c r="A10" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="n" s="41">
-        <v>45776.73194590278</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n" s="42">
-        <v>45776.657686886574</v>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n" s="39">
+        <v>45783.46106005787</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n" s="40">
+        <v>45783.49822712963</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n" s="41">
+        <v>45783.50439649306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="n" s="42">
+        <v>45783.563918113425</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n" s="43">
+        <v>45783.68658112268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="n" s="44">
+        <v>45784.38766594907</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="n" s="45">
+        <v>45784.56675888889</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="n" s="46">
+        <v>45787.55930364583</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C14"/>
+  <autoFilter ref="A5:C30"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
